--- a/model/FeatureImportanceLinReg.xlsx
+++ b/model/FeatureImportanceLinReg.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\SustainabilityReport\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A722BCC-A168-4BC3-BD12-E25D04AC42D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9CA6D-68D4-44BA-8451-3C90103CBACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="3300" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -204,14 +214,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,10 +1140,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AG6">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
